--- a/RIV4-tests/src/test/resources/imports/project/Tanzania/projectCashFlow.xlsx
+++ b/RIV4-tests/src/test/resources/imports/project/Tanzania/projectCashFlow.xlsx
@@ -2897,11 +2897,71 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Loans for investment</t>
-        </is>
+          <t>Financed investments</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" hidden="true">
